--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Sema3d-Nrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Sema3d-Nrp1.xlsx
@@ -534,16 +534,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.03373200000000001</v>
+        <v>0.01542466666666666</v>
       </c>
       <c r="H2">
-        <v>0.101196</v>
+        <v>0.046274</v>
       </c>
       <c r="I2">
-        <v>0.002572411152219347</v>
+        <v>0.001050900616877799</v>
       </c>
       <c r="J2">
-        <v>0.002572411152219347</v>
+        <v>0.001050900616877799</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>102.8289443333333</v>
+        <v>110.642708</v>
       </c>
       <c r="N2">
-        <v>308.486833</v>
+        <v>331.928124</v>
       </c>
       <c r="O2">
-        <v>0.5559120396302443</v>
+        <v>0.5476418925386564</v>
       </c>
       <c r="P2">
-        <v>0.5559120396302443</v>
+        <v>0.5476418925386564</v>
       </c>
       <c r="Q2">
-        <v>3.468625950252</v>
+        <v>1.706626889997333</v>
       </c>
       <c r="R2">
-        <v>31.217633552268</v>
+        <v>15.359642009976</v>
       </c>
       <c r="S2">
-        <v>0.001430034330397844</v>
+        <v>0.0005755172026969992</v>
       </c>
       <c r="T2">
-        <v>0.001430034330397844</v>
+        <v>0.0005755172026969993</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.03373200000000001</v>
+        <v>0.01542466666666666</v>
       </c>
       <c r="H3">
-        <v>0.101196</v>
+        <v>0.046274</v>
       </c>
       <c r="I3">
-        <v>0.002572411152219347</v>
+        <v>0.001050900616877799</v>
       </c>
       <c r="J3">
-        <v>0.002572411152219347</v>
+        <v>0.001050900616877799</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>190.987885</v>
       </c>
       <c r="O3">
-        <v>0.3441717873742007</v>
+        <v>0.3151072754333865</v>
       </c>
       <c r="P3">
-        <v>0.3441717873742007</v>
+        <v>0.3151072754333865</v>
       </c>
       <c r="Q3">
-        <v>2.14746777894</v>
+        <v>0.9819748211655555</v>
       </c>
       <c r="R3">
-        <v>19.32721001046</v>
+        <v>8.83777339049</v>
       </c>
       <c r="S3">
-        <v>0.0008853513441206595</v>
+        <v>0.0003311464301356284</v>
       </c>
       <c r="T3">
-        <v>0.0008853513441206595</v>
+        <v>0.0003311464301356284</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.03373200000000001</v>
+        <v>0.01542466666666666</v>
       </c>
       <c r="H4">
-        <v>0.101196</v>
+        <v>0.046274</v>
       </c>
       <c r="I4">
-        <v>0.002572411152219347</v>
+        <v>0.001050900616877799</v>
       </c>
       <c r="J4">
-        <v>0.002572411152219347</v>
+        <v>0.001050900616877799</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>18.481835</v>
+        <v>27.72944133333333</v>
       </c>
       <c r="N4">
-        <v>55.445505</v>
+        <v>83.18832399999999</v>
       </c>
       <c r="O4">
-        <v>0.09991617299555509</v>
+        <v>0.1372508320279571</v>
       </c>
       <c r="P4">
-        <v>0.09991617299555508</v>
+        <v>0.1372508320279571</v>
       </c>
       <c r="Q4">
-        <v>0.6234292582200001</v>
+        <v>0.4277173894195554</v>
       </c>
       <c r="R4">
-        <v>5.61086332398</v>
+        <v>3.849456504775999</v>
       </c>
       <c r="S4">
-        <v>0.0002570254777008434</v>
+        <v>0.0001442369840451713</v>
       </c>
       <c r="T4">
-        <v>0.0002570254777008434</v>
+        <v>0.0001442369840451713</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>37.452471</v>
       </c>
       <c r="I5">
-        <v>0.9520450816096649</v>
+        <v>0.8505602471689909</v>
       </c>
       <c r="J5">
-        <v>0.9520450816096651</v>
+        <v>0.8505602471689909</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>102.8289443333333</v>
+        <v>110.642708</v>
       </c>
       <c r="N5">
-        <v>308.486833</v>
+        <v>331.928124</v>
       </c>
       <c r="O5">
-        <v>0.5559120396302443</v>
+        <v>0.5476418925386564</v>
       </c>
       <c r="P5">
-        <v>0.5559120396302443</v>
+        <v>0.5476418925386564</v>
       </c>
       <c r="Q5">
-        <v>1283.732685201594</v>
+        <v>1381.280937577156</v>
       </c>
       <c r="R5">
-        <v>11553.59416681434</v>
+        <v>12431.5284381944</v>
       </c>
       <c r="S5">
-        <v>0.5292533231375712</v>
+        <v>0.4658024234777735</v>
       </c>
       <c r="T5">
-        <v>0.5292533231375712</v>
+        <v>0.4658024234777735</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>37.452471</v>
       </c>
       <c r="I6">
-        <v>0.9520450816096649</v>
+        <v>0.8505602471689909</v>
       </c>
       <c r="J6">
-        <v>0.9520450816096651</v>
+        <v>0.8505602471689909</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>190.987885</v>
       </c>
       <c r="O6">
-        <v>0.3441717873742007</v>
+        <v>0.3151072754333865</v>
       </c>
       <c r="P6">
-        <v>0.3441717873742007</v>
+        <v>0.3151072754333865</v>
       </c>
       <c r="Q6">
         <v>794.7742471459818</v>
@@ -818,10 +818,10 @@
         <v>7152.968224313836</v>
       </c>
       <c r="S6">
-        <v>0.3276670573984151</v>
+        <v>0.2680177220773685</v>
       </c>
       <c r="T6">
-        <v>0.3276670573984152</v>
+        <v>0.2680177220773685</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>37.452471</v>
       </c>
       <c r="I7">
-        <v>0.9520450816096649</v>
+        <v>0.8505602471689909</v>
       </c>
       <c r="J7">
-        <v>0.9520450816096651</v>
+        <v>0.8505602471689909</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>18.481835</v>
+        <v>27.72944133333333</v>
       </c>
       <c r="N7">
-        <v>55.445505</v>
+        <v>83.18832399999999</v>
       </c>
       <c r="O7">
-        <v>0.09991617299555509</v>
+        <v>0.1372508320279571</v>
       </c>
       <c r="P7">
-        <v>0.09991617299555508</v>
+        <v>0.1372508320279571</v>
       </c>
       <c r="Q7">
-        <v>230.730129788095</v>
+        <v>346.1786991276227</v>
       </c>
       <c r="R7">
-        <v>2076.571168092855</v>
+        <v>3115.608292148604</v>
       </c>
       <c r="S7">
-        <v>0.09512470107367865</v>
+        <v>0.1167401016138489</v>
       </c>
       <c r="T7">
-        <v>0.09512470107367865</v>
+        <v>0.1167401016138489</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.5951003333333332</v>
+        <v>2.177987666666667</v>
       </c>
       <c r="H8">
-        <v>1.785301</v>
+        <v>6.533963</v>
       </c>
       <c r="I8">
-        <v>0.04538250723811564</v>
+        <v>0.1483888522141314</v>
       </c>
       <c r="J8">
-        <v>0.04538250723811565</v>
+        <v>0.1483888522141314</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>102.8289443333333</v>
+        <v>110.642708</v>
       </c>
       <c r="N8">
-        <v>308.486833</v>
+        <v>331.928124</v>
       </c>
       <c r="O8">
-        <v>0.5559120396302443</v>
+        <v>0.5476418925386564</v>
       </c>
       <c r="P8">
-        <v>0.5559120396302443</v>
+        <v>0.5476418925386564</v>
       </c>
       <c r="Q8">
-        <v>61.19353904908143</v>
+        <v>240.9784534306013</v>
       </c>
       <c r="R8">
-        <v>550.7418514417329</v>
+        <v>2168.806080875412</v>
       </c>
       <c r="S8">
-        <v>0.02522868216227519</v>
+        <v>0.08126395185818588</v>
       </c>
       <c r="T8">
-        <v>0.02522868216227519</v>
+        <v>0.08126395185818588</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.5951003333333332</v>
+        <v>2.177987666666667</v>
       </c>
       <c r="H9">
-        <v>1.785301</v>
+        <v>6.533963</v>
       </c>
       <c r="I9">
-        <v>0.04538250723811564</v>
+        <v>0.1483888522141314</v>
       </c>
       <c r="J9">
-        <v>0.04538250723811565</v>
+        <v>0.1483888522141314</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>190.987885</v>
       </c>
       <c r="O9">
-        <v>0.3441717873742007</v>
+        <v>0.3151072754333865</v>
       </c>
       <c r="P9">
-        <v>0.3441717873742007</v>
+        <v>0.3151072754333865</v>
       </c>
       <c r="Q9">
-        <v>37.88565134204277</v>
+        <v>138.6564193375839</v>
       </c>
       <c r="R9">
-        <v>340.970862078385</v>
+        <v>1247.907774038255</v>
       </c>
       <c r="S9">
-        <v>0.01561937863166486</v>
+        <v>0.04675840692588238</v>
       </c>
       <c r="T9">
-        <v>0.01561937863166486</v>
+        <v>0.04675840692588238</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.5951003333333332</v>
+        <v>2.177987666666667</v>
       </c>
       <c r="H10">
-        <v>1.785301</v>
+        <v>6.533963</v>
       </c>
       <c r="I10">
-        <v>0.04538250723811564</v>
+        <v>0.1483888522141314</v>
       </c>
       <c r="J10">
-        <v>0.04538250723811565</v>
+        <v>0.1483888522141314</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>18.481835</v>
+        <v>27.72944133333333</v>
       </c>
       <c r="N10">
-        <v>55.445505</v>
+        <v>83.18832399999999</v>
       </c>
       <c r="O10">
-        <v>0.09991617299555509</v>
+        <v>0.1372508320279571</v>
       </c>
       <c r="P10">
-        <v>0.09991617299555508</v>
+        <v>0.1372508320279571</v>
       </c>
       <c r="Q10">
-        <v>10.99854616911166</v>
+        <v>60.39438122755688</v>
       </c>
       <c r="R10">
-        <v>98.98691552200498</v>
+        <v>543.5494310480119</v>
       </c>
       <c r="S10">
-        <v>0.004534446444175594</v>
+        <v>0.0203664934300631</v>
       </c>
       <c r="T10">
-        <v>0.004534446444175594</v>
+        <v>0.0203664934300631</v>
       </c>
     </row>
   </sheetData>
